--- a/APF/SD008/APF開發測試進度_20131213.xlsx
+++ b/APF/SD008/APF開發測試進度_20131213.xlsx
@@ -1436,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1932,8 +1932,12 @@
       <c r="T8" s="69" t="s">
         <v>91</v>
       </c>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
+      <c r="U8" s="56">
+        <v>41634</v>
+      </c>
+      <c r="V8" s="56">
+        <v>41635</v>
+      </c>
       <c r="W8" s="60"/>
       <c r="X8" s="60"/>
       <c r="Y8" s="61"/>
